--- a/2019/30131.xlsx
+++ b/2019/30131.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\dt\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945CEAE7-A022-4934-B892-2EC874F88D75}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3351A20-1704-401E-A9E8-997E81321FE9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5D8816DA-82BD-435A-B96D-1E869846659E}"/>
   </bookViews>
@@ -889,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FC518A-FA3D-453E-BD9E-77B969FB8DBB}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -981,7 +981,9 @@
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="9">
+        <v>6</v>
+      </c>
       <c r="D5" s="10"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -1397,7 +1399,9 @@
       <c r="B30" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="17"/>
+      <c r="C30" s="17">
+        <v>6</v>
+      </c>
       <c r="D30" s="15"/>
       <c r="E30" s="13"/>
       <c r="F30" s="14"/>

--- a/2019/30131.xlsx
+++ b/2019/30131.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\dt\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3351A20-1704-401E-A9E8-997E81321FE9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB177BA3-0FAB-4083-8190-6532003ECE1A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5D8816DA-82BD-435A-B96D-1E869846659E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>L1</t>
   </si>
@@ -160,7 +160,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -889,16 +889,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FC518A-FA3D-453E-BD9E-77B969FB8DBB}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="4" t="s">
@@ -926,7 +926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.4" customHeight="1">
+    <row r="2" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -942,7 +942,7 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" ht="14.4" customHeight="1">
+    <row r="3" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -958,7 +958,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" ht="14.4" customHeight="1">
+    <row r="4" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -974,7 +974,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="14.4" customHeight="1">
+    <row r="5" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -992,7 +992,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4" customHeight="1">
+    <row r="6" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1008,7 +1008,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="14.4" customHeight="1">
+    <row r="7" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1024,7 +1024,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="14.4" customHeight="1">
+    <row r="8" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1040,7 +1040,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="14.4" customHeight="1">
+    <row r="9" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="14.4" customHeight="1">
+    <row r="10" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1072,7 +1072,7 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" ht="14.4" customHeight="1">
+    <row r="11" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1088,7 +1088,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" ht="14.4" customHeight="1">
+    <row r="12" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1104,7 +1104,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="14.4" customHeight="1">
+    <row r="13" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1120,14 +1120,16 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" ht="14.4" customHeight="1">
+    <row r="14" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D14" s="10"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -1136,7 +1138,7 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" ht="14.4" customHeight="1">
+    <row r="15" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1152,7 +1154,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:10" ht="14.4" customHeight="1">
+    <row r="16" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1170,7 +1172,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="14.4" customHeight="1">
+    <row r="17" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1186,7 +1188,7 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="14.4" customHeight="1">
+    <row r="18" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1202,7 +1204,7 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="14.4" customHeight="1">
+    <row r="19" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1220,7 +1222,7 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="14.4" customHeight="1">
+    <row r="20" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1238,7 +1240,7 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="14.4" customHeight="1">
+    <row r="21" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1256,7 +1258,7 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="14.4" customHeight="1">
+    <row r="22" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1274,7 +1276,7 @@
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" ht="14.4" customHeight="1">
+    <row r="23" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1292,7 +1294,7 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" ht="14.4" customHeight="1">
+    <row r="24" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1308,7 +1310,7 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10" ht="14.4" customHeight="1">
+    <row r="25" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1326,7 +1328,7 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" ht="14.4" customHeight="1">
+    <row r="26" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1342,7 +1344,7 @@
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:10" ht="14.4" customHeight="1">
+    <row r="27" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1358,7 +1360,7 @@
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:10" ht="14.4" customHeight="1">
+    <row r="28" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="22">
         <v>27</v>
       </c>
@@ -1374,7 +1376,7 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:10" ht="14.4" customHeight="1">
+    <row r="29" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="22">
         <v>28</v>
       </c>
@@ -1392,7 +1394,7 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="1:10" ht="14.4" customHeight="1">
+    <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="24">
         <v>29</v>
       </c>
@@ -1410,7 +1412,7 @@
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="25">
         <v>30</v>
       </c>
@@ -1428,7 +1430,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="28">
         <v>31</v>
       </c>
@@ -1440,7 +1442,7 @@
       </c>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
     </row>
   </sheetData>

--- a/2019/30131.xlsx
+++ b/2019/30131.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\dt\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB177BA3-0FAB-4083-8190-6532003ECE1A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D48098B-A4F7-4946-A119-E2F6EF22CDE7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5D8816DA-82BD-435A-B96D-1E869846659E}"/>
   </bookViews>
@@ -490,9 +490,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
@@ -525,9 +524,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -563,7 +559,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -889,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FC518A-FA3D-453E-BD9E-77B969FB8DBB}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -899,551 +895,566 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="C2" s="5">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="C4" s="8">
+        <v>8</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>6</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="C6" s="8">
+        <v>6</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+      <c r="C7" s="8">
+        <v>6</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="C8" s="8">
+        <v>5</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="C9" s="8">
+        <v>10</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="C12" s="8">
+        <v>3</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="C13" s="8">
+        <v>8</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8">
+        <v>8</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="8">
+        <v>10</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="8">
         <v>6</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="8">
+        <v>6</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="8">
+        <v>8</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="8">
+        <v>9</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="B23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="8">
+        <v>8</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="C16" s="9">
+      <c r="B24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="8">
+        <v>10</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="20">
+        <v>27</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="8">
+        <v>8</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20">
+        <v>28</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="11">
+        <v>8</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="22">
+        <v>29</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="15">
         <v>6</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="9">
+      <c r="D30" s="13"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="23">
+        <v>30</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="26">
+        <v>31</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="14">
         <v>6</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="9">
-        <v>8</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="9">
-        <v>9</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="9">
-        <v>8</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-    </row>
-    <row r="27" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-    </row>
-    <row r="28" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22">
-        <v>27</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-    </row>
-    <row r="29" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="22">
-        <v>28</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="12">
-        <v>8</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-    </row>
-    <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="24">
-        <v>29</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="17">
-        <v>6</v>
-      </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="25">
-        <v>30</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="17">
-        <v>8</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="28">
-        <v>31</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="16">
-        <v>6</v>
-      </c>
-      <c r="H32" s="2"/>
+      <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
+      <c r="A33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2019/30131.xlsx
+++ b/2019/30131.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\dt\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D48098B-A4F7-4946-A119-E2F6EF22CDE7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1B6563-F6D8-4D36-882E-FFEEDD19C893}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5D8816DA-82BD-435A-B96D-1E869846659E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>L1</t>
   </si>
@@ -885,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FC518A-FA3D-453E-BD9E-77B969FB8DBB}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -984,7 +984,9 @@
       <c r="C5" s="8">
         <v>6</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="9">
+        <v>3</v>
+      </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1087,7 +1089,9 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="D11" s="9"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -1178,7 +1182,9 @@
       <c r="C16" s="8">
         <v>6</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="9">
+        <v>2</v>
+      </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -1228,7 +1234,9 @@
       <c r="C19" s="8">
         <v>6</v>
       </c>
-      <c r="D19" s="9"/>
+      <c r="D19" s="9">
+        <v>2</v>
+      </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -1246,7 +1254,9 @@
       <c r="C20" s="8">
         <v>8</v>
       </c>
-      <c r="D20" s="9"/>
+      <c r="D20" s="9">
+        <v>3</v>
+      </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -1264,7 +1274,9 @@
       <c r="C21" s="8">
         <v>9</v>
       </c>
-      <c r="D21" s="9"/>
+      <c r="D21" s="9">
+        <v>4</v>
+      </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -1282,7 +1294,9 @@
       <c r="C22" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="9"/>
+      <c r="D22" s="9">
+        <v>1</v>
+      </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -1300,7 +1314,9 @@
       <c r="C23" s="8">
         <v>8</v>
       </c>
-      <c r="D23" s="9"/>
+      <c r="D23" s="9">
+        <v>2</v>
+      </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -1316,7 +1332,9 @@
         <v>31</v>
       </c>
       <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
+      <c r="D24" s="9">
+        <v>2</v>
+      </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -1334,7 +1352,9 @@
       <c r="C25" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="9"/>
+      <c r="D25" s="9">
+        <v>2</v>
+      </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -1352,7 +1372,9 @@
       <c r="C26" s="8">
         <v>10</v>
       </c>
-      <c r="D26" s="9"/>
+      <c r="D26" s="9">
+        <v>5</v>
+      </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -1404,7 +1426,9 @@
       <c r="C29" s="11">
         <v>8</v>
       </c>
-      <c r="D29" s="9"/>
+      <c r="D29" s="9">
+        <v>2</v>
+      </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -1422,7 +1446,9 @@
       <c r="C30" s="15">
         <v>6</v>
       </c>
-      <c r="D30" s="13"/>
+      <c r="D30" s="13">
+        <v>1</v>
+      </c>
       <c r="E30" s="12"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
@@ -1440,6 +1466,9 @@
       <c r="C31" s="15">
         <v>8</v>
       </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="26">
@@ -1450,6 +1479,9 @@
       </c>
       <c r="C32" s="14">
         <v>6</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
       </c>
       <c r="H32" s="1"/>
     </row>
